--- a/ESF_v2.xlsx
+++ b/ESF_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dimitri\Desktop\mvpf_ESF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506F4D7C-0E70-4CC8-906B-43AE2F7F47A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B9392D-08FC-4C96-810E-70A7C5265D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,7 +388,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -405,11 +405,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -437,6 +446,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1887,7 +1897,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1986,8 +1996,8 @@
         <v>27.197348080859999</v>
       </c>
       <c r="F5" s="15">
-        <f>Dados!B16*Dados!$F$67</f>
-        <v>-1.4222224446886087</v>
+        <f>-Dados!B16*Dados!$F$67</f>
+        <v>1.4222224446886087</v>
       </c>
       <c r="G5" s="15">
         <f>Dados!E43*Dados!$F$74*Dados!$F$69*(1-Dados!$F$75)</f>
@@ -2007,7 +2017,7 @@
       </c>
       <c r="L5" s="15">
         <f>SUM(B5:H5)/(1+Dados!$F$77)^A5</f>
-        <v>137.71681439298101</v>
+        <v>140.47841137295887</v>
       </c>
       <c r="M5" s="15">
         <f>(Dados!$F$67-SUM(I5:J5))/(1+Dados!$F$77)^A5</f>
@@ -2035,8 +2045,8 @@
         <v>91.395295935120004</v>
       </c>
       <c r="F6" s="15">
-        <f>Dados!B17*Dados!$F$67</f>
-        <v>-1.9791301414387505</v>
+        <f>-Dados!B17*Dados!$F$67</f>
+        <v>1.9791301414387505</v>
       </c>
       <c r="G6" s="15">
         <f>Dados!E44*Dados!$F$74*Dados!$F$69*(1-Dados!$F$75)</f>
@@ -2056,7 +2066,7 @@
       </c>
       <c r="L6" s="15">
         <f>SUM(B6:H6)/(1+Dados!$F$77)^A6</f>
-        <v>283.43617300603955</v>
+        <v>287.16721295596653</v>
       </c>
       <c r="M6" s="15">
         <f>(Dados!$F$67-SUM(I6:J6))/(1+Dados!$F$77)^A6</f>
@@ -2084,8 +2094,8 @@
         <v>213.23026054979999</v>
       </c>
       <c r="F7" s="15">
-        <f>Dados!B18*Dados!$F$67</f>
-        <v>-2.6846944743731926</v>
+        <f>-Dados!B18*Dados!$F$67</f>
+        <v>2.6846944743731926</v>
       </c>
       <c r="G7" s="15">
         <f>Dados!E45*Dados!$F$74*Dados!$F$69*(1-Dados!$F$75)</f>
@@ -2105,7 +2115,7 @@
       </c>
       <c r="L7" s="15">
         <f>SUM(B7:H7)/(1+Dados!$F$77)^A7</f>
-        <v>503.39220051039064</v>
+        <v>508.30595202265886</v>
       </c>
       <c r="M7" s="15">
         <f>(Dados!$F$67-SUM(I7:J7))/(1+Dados!$F$77)^A7</f>
@@ -2133,8 +2143,8 @@
         <v>316.98451970819997</v>
       </c>
       <c r="F8" s="15">
-        <f>Dados!B19*Dados!$F$67</f>
-        <v>-3.3059460882777332</v>
+        <f>-Dados!B19*Dados!$F$67</f>
+        <v>3.3059460882777332</v>
       </c>
       <c r="G8" s="15">
         <f>Dados!E46*Dados!$F$74*Dados!$F$69*(1-Dados!$F$75)</f>
@@ -2154,7 +2164,7 @@
       </c>
       <c r="L8" s="15">
         <f>SUM(B8:H8)/(1+Dados!$F$77)^A8</f>
-        <v>708.38294183802077</v>
+        <v>714.25752239910548</v>
       </c>
       <c r="M8" s="15">
         <f>(Dados!$F$67-SUM(I8:J8))/(1+Dados!$F$77)^A8</f>
@@ -2182,8 +2192,8 @@
         <v>344.63960716769998</v>
       </c>
       <c r="F9" s="15">
-        <f>Dados!B20*Dados!$F$67</f>
-        <v>-3.8162599139850344</v>
+        <f>-Dados!B20*Dados!$F$67</f>
+        <v>3.8162599139850344</v>
       </c>
       <c r="G9" s="15">
         <f>Dados!E47*Dados!$F$74*Dados!$F$69*(1-Dados!$F$75)</f>
@@ -2203,7 +2213,7 @@
       </c>
       <c r="L9" s="15">
         <f>SUM(B9:H9)/(1+Dados!$F$77)^A9</f>
-        <v>829.60193754874092</v>
+        <v>836.18581619933434</v>
       </c>
       <c r="M9" s="15">
         <f>(Dados!$F$67-SUM(I9:J9))/(1+Dados!$F$77)^A9</f>
@@ -2231,8 +2241,8 @@
         <v>407.5787717307</v>
       </c>
       <c r="F10" s="15">
-        <f>Dados!B21*Dados!$F$67</f>
-        <v>-4.3487612973317828</v>
+        <f>-Dados!B21*Dados!$F$67</f>
+        <v>4.3487612973317828</v>
       </c>
       <c r="G10" s="15">
         <f>Dados!E48*Dados!$F$74*Dados!$F$69*(1-Dados!$F$75)</f>
@@ -2252,7 +2262,7 @@
       </c>
       <c r="L10" s="15">
         <f>SUM(B10:H10)/(1+Dados!$F$77)^A10</f>
-        <v>1016.3345538906777</v>
+        <v>1023.6185921358589</v>
       </c>
       <c r="M10" s="15">
         <f>(Dados!$F$67-SUM(I10:J10))/(1+Dados!$F$77)^A10</f>
@@ -2280,8 +2290,8 @@
         <v>481.92327581147998</v>
       </c>
       <c r="F11" s="15">
-        <f>Dados!B22*Dados!$F$67</f>
-        <v>-4.8590751230390845</v>
+        <f>-Dados!B22*Dados!$F$67</f>
+        <v>4.8590751230390845</v>
       </c>
       <c r="G11" s="15">
         <f>Dados!E49*Dados!$F$74*Dados!$F$69*(1-Dados!$F$75)</f>
@@ -2301,7 +2311,7 @@
       </c>
       <c r="L11" s="15">
         <f>SUM(B11:H11)/(1+Dados!$F$77)^A11</f>
-        <v>1069.4815167630165</v>
+        <v>1077.3832622340619</v>
       </c>
       <c r="M11" s="15">
         <f>(Dados!$F$67-SUM(I11:J11))/(1+Dados!$F$77)^A11</f>
@@ -2328,9 +2338,9 @@
         <f>-Dados!K11*Dados!$F$73*Dados!$F$68/1000</f>
         <v>462.08790273708001</v>
       </c>
-      <c r="F12" s="16">
-        <f>Dados!B23*Dados!$F$67</f>
-        <v>-5.347201391106938</v>
+      <c r="F12" s="23">
+        <f>-Dados!B23*Dados!$F$67</f>
+        <v>5.347201391106938</v>
       </c>
       <c r="G12" s="16">
         <f>Dados!E50*Dados!$F$74*Dados!$F$69*(1-Dados!$F$75)</f>
@@ -2351,7 +2361,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="16">
         <f>SUM(B12:H12)/(1+Dados!$F$77)^A12</f>
-        <v>1236.9540238197005</v>
+        <v>1245.3962841314526</v>
       </c>
       <c r="M12" s="16">
         <f>(Dados!$F$67-SUM(I12:J12))/(1+Dados!$F$77)^A12</f>
@@ -2364,7 +2374,7 @@
       </c>
       <c r="L13" s="15">
         <f t="shared" ref="L13:M13" si="0">SUM(L5:L12)</f>
-        <v>5785.3001617695681</v>
+        <v>5832.7930534513971</v>
       </c>
       <c r="M13" s="15">
         <f t="shared" si="0"/>
@@ -2377,7 +2387,7 @@
       </c>
       <c r="L14" s="18">
         <f>L13/M13</f>
-        <v>3.7301549749988978</v>
+        <v>3.7607766957792195</v>
       </c>
     </row>
   </sheetData>
